--- a/Files/response.xlsx
+++ b/Files/response.xlsx
@@ -8,19 +8,120 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiunk\Desktop\UTK\Semesters\Fall 2023\Courses\ENGL 355\Public-Facing-Project\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC7C260-84AE-4560-A17B-54F0CE39E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477A1D31-0C7B-485C-A28E-3DE02503C27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
+  <si>
+    <r>
+      <t xml:space="preserve">3. If you answered </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to question 1, what was the primary reason for not using  GenAI?</t>
+    </r>
+  </si>
+  <si>
+    <t>4. How would you rate the impact of GenAI on your writing productivity on a scale of 1 to 5?</t>
+  </si>
+  <si>
+    <t>[1] This paper offers a concise review of recent progress in neuromorphic computing algorithms and applications. Examining state-of-the-art methodologies, we delve into the underlying principles and highlight diverse applications across domains such as robotics, image and speech recognition, and natural language processing. This synthesis aims to serve as a valuable resource for researchers and practitioners, providing insights into the current landscape and guiding future developments in this rapidly advancing field.</t>
+  </si>
+  <si>
+    <t>[3] Occupying about the same latitude as Italy, Corea is also, like Italy, hemmed in on the north by mountain ranges, and traversed from north to south by another chain. The whole peninsula is very mountainous, some of the peaks rising to a height of eight thousand feet.
+The climate of the country is excellent, bracing in the north, with the south tempered by the ocean breezes in summer. The winters in the north are colder than those of American states in the same latitude, and the summers are hotter. The heat is tempered by sea breezes, but in the narrow enclosed valleys it becomes very intense. The Han is frozen at Seoul for three months in the year, sufficiently to be used as a cart road, while the Tumen is usually frozen for five months.</t>
+  </si>
+  <si>
+    <t>[4] The Civil War, spanning 1861-1865, was a defining chapter in American history. Rooted in sectional tensions over slavery and states' rights, it culminated in a devastating conflict between the Union and the Confederacy. Battles like Gettysburg and Antietam left indelible marks on the nation's psyche. President Lincoln's Emancipation Proclamation transformed the war's purpose, making the abolition of slavery a central goal. The war's aftermath witnessed the struggle for Reconstruction and the challenge of rebuilding a fractured nation. The Civil War's impact echoes through time, shaping the trajectory of American society and politics, and underscoring the enduring struggle for justice and unity.</t>
+  </si>
+  <si>
+    <t>From [1] to [4], can you briefly explain what impacts your decision a lot? (1-2 sentences for each)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Sometimes it provides non-professional vocabularies and sometimes too formal words. aslo the tone is usually not what I would write the writings to.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>I have not encountered any challenges or limitations using ChatGPT for writing tasks since I only use it as reference.</t>
+  </si>
+  <si>
+    <t>Needing to be specific and precise with your wording is a must.</t>
+  </si>
+  <si>
+    <t>Yes, it often doesn't fully understand what I am asking</t>
+  </si>
+  <si>
+    <t>When writing the AI Analysis paper for this class, I did run into some issues. Many times, I would ask AI different questions, but it would give me the same chunk of text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It takes prompts very literally, so sometimes you have to reword your question a couple of ways. </t>
+  </si>
+  <si>
+    <t>It can be very repetitive. Overall I know it isnt perfect so I'm happy with it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They seem repetitive </t>
+  </si>
+  <si>
+    <t>Human-writing</t>
+  </si>
+  <si>
+    <t>ChatGPT-generated</t>
+  </si>
+  <si>
+    <t>[2] “My heart beat quick; this was the hour and moment of trial, which would decide my hopes or realise my fears. The servants were gone to a neighbouring fair. All was silent in and around the cottage; it was an excellent opportunity; yet, when I proceeded to execute my plan, my limbs failed me and I sank to the ground. Again I rose, and exerting all the firmness of which I was master, removed the planks which I had placed before my hovel to conceal my retreat. The fresh air revived me, and with renewed determination I approached the door of their cottage.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. Are you registered in either ENGL 355 or ENGL 357?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Do you prefer to use Generative AI (GenAI) for writing purposes in either academic or non-academic?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <r>
       <t xml:space="preserve">2. If you answered </t>
@@ -44,159 +145,93 @@
       </rPr>
       <t>to question 1, what was the primary purpose for using GenAI?</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. If you answered </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to question 1, what was the primary reason for not using  GenAI?</t>
-    </r>
-  </si>
-  <si>
-    <t>4. How would you rate the impact of GenAI on your writing productivity on a scale of 1 to 5?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I prefer having a certain writing style that ChatGPT doesn't necessarily replicate.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is often more difficult to get it to work in the ways that I want</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before this class, I had never thought of using AI. In all honesty, I did not even know how it worked at all, so I had no desire to use it.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5. Have you encountered any challenges or limitations when using GenAI for writing tasks? If so, please describe.</t>
-  </si>
-  <si>
-    <t>[1] This paper offers a concise review of recent progress in neuromorphic computing algorithms and applications. Examining state-of-the-art methodologies, we delve into the underlying principles and highlight diverse applications across domains such as robotics, image and speech recognition, and natural language processing. This synthesis aims to serve as a valuable resource for researchers and practitioners, providing insights into the current landscape and guiding future developments in this rapidly advancing field.</t>
-  </si>
-  <si>
-    <t>[3] Occupying about the same latitude as Italy, Corea is also, like Italy, hemmed in on the north by mountain ranges, and traversed from north to south by another chain. The whole peninsula is very mountainous, some of the peaks rising to a height of eight thousand feet.
-The climate of the country is excellent, bracing in the north, with the south tempered by the ocean breezes in summer. The winters in the north are colder than those of American states in the same latitude, and the summers are hotter. The heat is tempered by sea breezes, but in the narrow enclosed valleys it becomes very intense. The Han is frozen at Seoul for three months in the year, sufficiently to be used as a cart road, while the Tumen is usually frozen for five months.</t>
-  </si>
-  <si>
-    <t>[4] The Civil War, spanning 1861-1865, was a defining chapter in American history. Rooted in sectional tensions over slavery and states' rights, it culminated in a devastating conflict between the Union and the Confederacy. Battles like Gettysburg and Antietam left indelible marks on the nation's psyche. President Lincoln's Emancipation Proclamation transformed the war's purpose, making the abolition of slavery a central goal. The war's aftermath witnessed the struggle for Reconstruction and the challenge of rebuilding a fractured nation. The Civil War's impact echoes through time, shaping the trajectory of American society and politics, and underscoring the enduring struggle for justice and unity.</t>
-  </si>
-  <si>
-    <t>From [1] to [4], can you briefly explain what impacts your decision a lot? (1-2 sentences for each)</t>
-  </si>
-  <si>
-    <t>No</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The vocabularies used and tone and format of the writing.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1] For this writing, I just saw a lot of the same stuff that I have been seeing all year by the computer science majors in the class, so I chose human-written. [2] In this text, the creative flow and narration led me to believe that it was AI-written. [3] Again the word choice and diction of this text made me think that it was written by AI. [4] Something about the very first sentence of this text chunk made me think that this was written by a human. It seems very similar to something that I would produce given the same topic.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have no idea. I kind of guessed on all of them. I think I decided the more boring texts were AI generated.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I chose ChatGPT-generated text whenever the text seemed kind of choppy or changed directions abruptly. The human-writing text seemed to flow smoother and followed a good structure of introduction, elaboration, conclusion.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>To get a general idea or word references</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I use it to find synonyms and think of different ways to phrase sentences. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>It helps with assisting in ways like grammar or form</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outline, synonyms, checking if I should turn a paragraph into two paragraphs, grammar checker, citation help</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistance </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">I prefer the Grammarly </t>
-  </si>
-  <si>
-    <t>Sometimes it provides non-professional vocabularies and sometimes too formal words. aslo the tone is usually not what I would write the writings to.</t>
-  </si>
-  <si>
-    <t>The vocabularies used and tone and format of the writing.</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>To get a general idea or word references</t>
-  </si>
-  <si>
-    <t>I have not encountered any challenges or limitations using ChatGPT for writing tasks since I only use it as reference.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Although it might be able to help me write better, I do not want to develop a reliance on it.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1: Human - Chat-GPT usually use more descriptive words and this paper doesn't
 2: Human - Chat-GPT does not usually use semicolons
 3: Chat-GPT - a lot of descriptive words
 4: Human - sounds like human</t>
-  </si>
-  <si>
-    <t>I prefer having a certain writing style that ChatGPT doesn't necessarily replicate.</t>
-  </si>
-  <si>
-    <t>Needing to be specific and precise with your wording is a must.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Choice of words, connection amongst sentences, overall progress of the text.</t>
-  </si>
-  <si>
-    <t>It is often more difficult to get it to work in the ways that I want</t>
-  </si>
-  <si>
-    <t>Yes, it often doesn't fully understand what I am asking</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Just by feel</t>
-  </si>
-  <si>
-    <t>Before this class, I had never thought of using AI. In all honesty, I did not even know how it worked at all, so I had no desire to use it.</t>
-  </si>
-  <si>
-    <t>When writing the AI Analysis paper for this class, I did run into some issues. Many times, I would ask AI different questions, but it would give me the same chunk of text.</t>
-  </si>
-  <si>
-    <t>[1] For this writing, I just saw a lot of the same stuff that I have been seeing all year by the computer science majors in the class, so I chose human-written. [2] In this text, the creative flow and narration led me to believe that it was AI-written. [3] Again the word choice and diction of this text made me think that it was written by AI. [4] Something about the very first sentence of this text chunk made me think that this was written by a human. It seems very similar to something that I would produce given the same topic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I use it to find synonyms and think of different ways to phrase sentences. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It takes prompts very literally, so sometimes you have to reword your question a couple of ways. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">The word choice and sentence structures are the main way I try to distinguish between human and AI written writing. </t>
-  </si>
-  <si>
-    <t>It helps with assisting in ways like grammar or form</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Point of view</t>
-  </si>
-  <si>
-    <t>Outline, synonyms, checking if I should turn a paragraph into two paragraphs, grammar checker, citation help</t>
-  </si>
-  <si>
-    <t>It can be very repetitive. Overall I know it isnt perfect so I'm happy with it</t>
-  </si>
-  <si>
-    <t>I have no idea. I kind of guessed on all of them. I think I decided the more boring texts were AI generated.</t>
-  </si>
-  <si>
-    <t>Although it might be able to help me write better, I do not want to develop a reliance on it.</t>
-  </si>
-  <si>
-    <t>I chose ChatGPT-generated text whenever the text seemed kind of choppy or changed directions abruptly. The human-writing text seemed to flow smoother and followed a good structure of introduction, elaboration, conclusion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They seem repetitive </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Sentence structure </t>
-  </si>
-  <si>
-    <t>Human-writing</t>
-  </si>
-  <si>
-    <t>ChatGPT-generated</t>
-  </si>
-  <si>
-    <t>[2] “My heart beat quick; this was the hour and moment of trial, which would decide my hopes or realise my fears. The servants were gone to a neighbouring fair. All was silent in and around the cottage; it was an excellent opportunity; yet, when I proceeded to execute my plan, my limbs failed me and I sank to the ground. Again I rose, and exerting all the firmness of which I was master, removed the planks which I had placed before my hovel to conceal my retreat. The fresh air revived me, and with renewed determination I approached the door of their cottage.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0. Are you registered in either ENGL 355 or ENGL 357?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Do you prefer to use Generative AI (GenAI) for writing purposes in either academic or non-academic?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -659,8 +694,8 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,246 +706,246 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2">
@@ -918,116 +953,116 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7">
         <v>5</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
